--- a/data/trans_camb/P1403-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.07314470416962911</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4082091275061889</v>
+        <v>0.4082091275061888</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3165116929276469</v>
+        <v>-0.316152755785433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3155148929232717</v>
+        <v>-0.3149456090618932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3147580707048285</v>
+        <v>-0.3136024943566451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.672431054864221</v>
+        <v>-1.721710239742879</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.155566064408214</v>
+        <v>-1.152724864288137</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7314785849128944</v>
+        <v>-0.6795350858107126</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7376532891255139</v>
+        <v>-0.7099732050724866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5560925301515763</v>
+        <v>-0.5402749533387269</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2591524939083107</v>
+        <v>-0.2825064492072953</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6871226042448446</v>
+        <v>0.8467360357823105</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.514294860602454</v>
+        <v>1.487413098491204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.480978415361649</v>
+        <v>3.362601483405382</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1673780316140906</v>
+        <v>-0.1677267133654393</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4560202753551819</v>
+        <v>0.32209690362342</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.373349352161247</v>
+        <v>2.674923243903383</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1349663565706841</v>
+        <v>0.11426950356702</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5617666353151587</v>
+        <v>0.5652392594425941</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.108383455676866</v>
+        <v>1.817840332785901</v>
       </c>
     </row>
     <row r="7">
@@ -787,7 +787,9 @@
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
-      <c r="K8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -804,7 +806,9 @@
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
-      <c r="K9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>17.05823796786017</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -842,7 +846,7 @@
         <v>-0.03591783517539263</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6607848988415632</v>
+        <v>0.660784898841563</v>
       </c>
     </row>
     <row r="11">
@@ -853,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.004489692845930793</v>
+        <v>-0.000564291608828879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08033694880689593</v>
+        <v>0.09058997655993974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4908918170175355</v>
+        <v>0.3810646792724769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.311123271364638</v>
+        <v>-1.300089664102093</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.338648636425303</v>
+        <v>-2.323562701584716</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.764453456291092</v>
+        <v>-1.822028956832743</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3267707827218593</v>
+        <v>-0.3266578078573468</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7865159476051893</v>
+        <v>-0.7471057556707478</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2864970141564982</v>
+        <v>-0.2051725314078768</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +892,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.719393578883343</v>
+        <v>1.775823888987254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.331329581029385</v>
+        <v>2.275007252215103</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.390700110969126</v>
+        <v>4.272528018556678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.680097548988359</v>
+        <v>1.541495167193717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.2569162360917541</v>
+        <v>-0.1319481406131426</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7140623902915406</v>
+        <v>0.6619069333769515</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.297544009011972</v>
+        <v>1.310216923097391</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6784808426502223</v>
+        <v>0.6916076506056171</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.921067335747026</v>
+        <v>1.970597454071552</v>
       </c>
     </row>
     <row r="13">
@@ -947,7 +951,7 @@
         <v>-0.04384599582586154</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.806640260330857</v>
+        <v>0.8066402603308568</v>
       </c>
     </row>
     <row r="14">
@@ -958,31 +962,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7931691992778442</v>
+        <v>-0.6624841902484214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5880394789503085</v>
+        <v>-0.8105599819389305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5036382994250727</v>
+        <v>-0.4064882173551591</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6347300556333791</v>
+        <v>-0.6791506977813278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8352198980524378</v>
+        <v>-0.8713762109110292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.377902320430523</v>
+        <v>-0.30754967679177</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7018755401592922</v>
+        <v>-0.6651267265436026</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3536798642806175</v>
+        <v>-0.3222753583752269</v>
       </c>
     </row>
     <row r="15">
@@ -996,22 +1000,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2.244945115460991</v>
+        <v>1.965937174668937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0954629209323915</v>
+        <v>0.1489520641484901</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.076978631443029</v>
+        <v>1.151200721574614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.516516492332796</v>
+        <v>2.69510481776609</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.475017980034022</v>
+        <v>1.416027413586312</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.548944572406973</v>
+        <v>3.447149556010944</v>
       </c>
     </row>
     <row r="16">
@@ -1050,7 +1054,7 @@
         <v>-0.8572140992494395</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.7640101869725749</v>
+        <v>-0.7640101869725756</v>
       </c>
     </row>
     <row r="17">
@@ -1061,31 +1065,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3190941154076529</v>
+        <v>-0.3440661866328095</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.845082359341439</v>
+        <v>-1.574900842096576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.436219062099507</v>
+        <v>-1.51785830427163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.091750551082634</v>
+        <v>-3.055791748366369</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.111185450050576</v>
+        <v>-3.977261963742755</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.134451275835018</v>
+        <v>-3.89786564868624</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.073846022581</v>
+        <v>-1.070137343791548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.209504851278055</v>
+        <v>-2.383293957928387</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.139727177056264</v>
+        <v>-2.144631778272677</v>
       </c>
     </row>
     <row r="18">
@@ -1096,31 +1100,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.93407482097586</v>
+        <v>4.121284804401556</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.189039757323961</v>
+        <v>2.41836190469921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.716543513680646</v>
+        <v>2.935406500653554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.494300337354594</v>
+        <v>1.424917685848234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.01037322387846046</v>
+        <v>0.09768590766639865</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.4057977753971547</v>
+        <v>-0.2568089677312441</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.049227516752355</v>
+        <v>2.108772233912512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6282910264069963</v>
+        <v>0.548304632692388</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7092262311922173</v>
+        <v>0.587788714695774</v>
       </c>
     </row>
     <row r="19">
@@ -1146,7 +1150,7 @@
         <v>-0.4464158417722036</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4758773374178855</v>
+        <v>-0.4758773374178854</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1051687676526768</v>
@@ -1155,7 +1159,7 @@
         <v>-0.2242121197141925</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1998337914114396</v>
+        <v>-0.1998337914114398</v>
       </c>
     </row>
     <row r="20">
@@ -1166,31 +1170,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1158978338295599</v>
+        <v>-0.1223257086983097</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4531044207517772</v>
+        <v>-0.3948087392771727</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.361741486917579</v>
+        <v>-0.394444815417629</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5328404007783207</v>
+        <v>-0.5393161975255176</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7274669592800026</v>
+        <v>-0.6998206381438341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7249199348213072</v>
+        <v>-0.6950269444176116</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2335588969608051</v>
+        <v>-0.2503188722782626</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4851018323143481</v>
+        <v>-0.5077419084068283</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4644584651880904</v>
+        <v>-0.4842510170656202</v>
       </c>
     </row>
     <row r="21">
@@ -1201,31 +1205,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.755655524848499</v>
+        <v>1.83428962838945</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9924650321365848</v>
+        <v>1.109493795553229</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.135219262883469</v>
+        <v>1.293079684714822</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4976740070469424</v>
+        <v>0.4368113825091262</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02890998406799596</v>
+        <v>0.07627448711741522</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.08802591258019561</v>
+        <v>-0.07896326937648029</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6908085525336571</v>
+        <v>0.6714666227659928</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.201396441746274</v>
+        <v>0.2076702157068772</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2218014377858588</v>
+        <v>0.2049885738013793</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1268,7 @@
         <v>-1.231649334830587</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.816800877174339</v>
+        <v>1.816800877174345</v>
       </c>
     </row>
     <row r="23">
@@ -1275,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.005084889361342</v>
+        <v>-6.175413422834398</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.512946413579797</v>
+        <v>-4.472257901196725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.115970077221617</v>
+        <v>-1.98312285669702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.491578113377425</v>
+        <v>-1.829341648526281</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.549093656687369</v>
+        <v>-5.984511184252907</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.8999009812573</v>
+        <v>-1.721301007481519</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.817529845393685</v>
+        <v>-2.693739396664795</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.42002383915962</v>
+        <v>-3.794008599269506</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.9133639812849582</v>
+        <v>-1.056975105653402</v>
       </c>
     </row>
     <row r="24">
@@ -1310,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.077184271328673</v>
+        <v>1.748918110748779</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.110471473120614</v>
+        <v>3.681137463314416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.128769895531962</v>
+        <v>6.277475840343937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.382421927043445</v>
+        <v>5.67073316092088</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.4889361870039</v>
+        <v>1.165740489578377</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.8526102495583</v>
+        <v>4.835978703997275</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.128818882712109</v>
+        <v>2.923024053662556</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.204204785701145</v>
+        <v>1.280467055882315</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.605101362486906</v>
+        <v>4.164624041117823</v>
       </c>
     </row>
     <row r="25">
@@ -1369,7 +1373,7 @@
         <v>-0.09854540859735189</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1453639276359445</v>
+        <v>0.1453639276359449</v>
       </c>
     </row>
     <row r="26">
@@ -1380,31 +1384,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3714933958729014</v>
+        <v>-0.3819432105390215</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2778325409067677</v>
+        <v>-0.2775628280227216</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1275299066693204</v>
+        <v>-0.1296369068384566</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1146899244290379</v>
+        <v>-0.1377077023084199</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4353714573041991</v>
+        <v>-0.4395550904053713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1464018393026081</v>
+        <v>-0.13063183814695</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1920235174254299</v>
+        <v>-0.1910701580445969</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3056802369926894</v>
+        <v>-0.2751214989167012</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06388923942741132</v>
+        <v>-0.07487326793072267</v>
       </c>
     </row>
     <row r="27">
@@ -1415,31 +1419,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1767452097445444</v>
+        <v>0.1449316542923728</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3526703805953338</v>
+        <v>0.3177879383250433</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.532724661095265</v>
+        <v>0.5443606467093273</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.717687950012095</v>
+        <v>0.605335456889431</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1668278758824924</v>
+        <v>0.1458031678646536</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5608184074497281</v>
+        <v>0.5403504120411929</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2803795453372142</v>
+        <v>0.2619427108410303</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1105277417881085</v>
+        <v>0.1259995548204085</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4238049301895058</v>
+        <v>0.3785095131881684</v>
       </c>
     </row>
     <row r="28">
@@ -1460,7 +1464,7 @@
         <v>-5.700228935993312</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.274955998489031</v>
+        <v>-2.274955998489042</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.221291652245521</v>
@@ -1469,7 +1473,7 @@
         <v>-1.823956030277457</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.790436932071962</v>
+        <v>-4.790436932071968</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.811058211303655</v>
@@ -1478,7 +1482,7 @@
         <v>-3.725245416701201</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.538098841939852</v>
+        <v>-3.538098841939846</v>
       </c>
     </row>
     <row r="29">
@@ -1489,31 +1493,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.58931713591726</v>
+        <v>-2.217699442286167</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.8047704324477</v>
+        <v>-12.00373577806912</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.105710173724775</v>
+        <v>-8.523708848335048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3330983151614748</v>
+        <v>0.2507868371109624</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.030529108546</v>
+        <v>-8.01843473846148</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.3995516591925</v>
+        <v>-10.04887327865911</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.271209690590161</v>
+        <v>1.412880329303554</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.741722520772866</v>
+        <v>-7.708917462673556</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.074416626760215</v>
+        <v>-7.280277296722271</v>
       </c>
     </row>
     <row r="30">
@@ -1524,31 +1528,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.83584312878233</v>
+        <v>11.33867729261205</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3448126867124601</v>
+        <v>0.1708810258710209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.271180914962639</v>
+        <v>3.588719613404534</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.18175728747052</v>
+        <v>13.48666863055134</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.932937041493898</v>
+        <v>5.065138380885896</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.760720824367917</v>
+        <v>0.5858096249301131</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.57923271873374</v>
+        <v>10.19312234358643</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.034853142071173</v>
+        <v>0.7020893509423878</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8064050349457088</v>
+        <v>0.5987384045570133</v>
       </c>
     </row>
     <row r="31">
@@ -1565,7 +1569,7 @@
         <v>-0.1844234320603224</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07360321800030542</v>
+        <v>-0.07360321800030578</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2287964544237418</v>
@@ -1574,7 +1578,7 @@
         <v>-0.05778947767917916</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1517782466046488</v>
+        <v>-0.1517782466046489</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1859992820730877</v>
@@ -1583,7 +1587,7 @@
         <v>-0.1192369699041511</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1132468167715705</v>
+        <v>-0.1132468167715704</v>
       </c>
     </row>
     <row r="32">
@@ -1594,31 +1598,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07322136927305149</v>
+        <v>-0.06185528049858168</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.346186323497125</v>
+        <v>-0.3439713472141392</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2389786574165588</v>
+        <v>-0.2439159591557715</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.005408707552252395</v>
+        <v>0.006734782329058853</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2251925361891128</v>
+        <v>-0.2308569434370008</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2905375073915324</v>
+        <v>-0.2858870388781682</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03834856517380245</v>
+        <v>0.04305438544589089</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2340374184190932</v>
+        <v>-0.2313520746029975</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2112817081904946</v>
+        <v>-0.2155160625349034</v>
       </c>
     </row>
     <row r="33">
@@ -1629,31 +1633,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3898319543655737</v>
+        <v>0.4263107988023512</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02341747946816977</v>
+        <v>0.01309285020181598</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1224749831056936</v>
+        <v>0.1298602390270927</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4528466919973549</v>
+        <v>0.4693053967680605</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1465834296851811</v>
+        <v>0.1834462491289135</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02845394429288188</v>
+        <v>0.01668585629812363</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3634247882410043</v>
+        <v>0.359085297128072</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.03582952030686064</v>
+        <v>0.02558793215190777</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.02948481753846703</v>
+        <v>0.02471205863076644</v>
       </c>
     </row>
     <row r="34">
@@ -1683,7 +1687,7 @@
         <v>0.3488985774459219</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.133766038841749</v>
+        <v>1.133766038841738</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.1588850026154</v>
@@ -1692,7 +1696,7 @@
         <v>1.128599974741279</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.767851916055482</v>
+        <v>3.767851916055476</v>
       </c>
     </row>
     <row r="35">
@@ -1703,31 +1707,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.170987332602419</v>
+        <v>4.949855572726462</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.887379592924565</v>
+        <v>-4.836793673541502</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.3940275789805697</v>
+        <v>0.354669011818329</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.291227647556584</v>
+        <v>3.679279556108084</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.726353760636444</v>
+        <v>-6.71477579707145</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.148020767978163</v>
+        <v>-4.852540194999933</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.543569052113114</v>
+        <v>6.489474568139849</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.309758120292447</v>
+        <v>-4.502863200476752</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.7442176279224525</v>
+        <v>-0.7394664288858309</v>
       </c>
     </row>
     <row r="36">
@@ -1738,31 +1742,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.73270024879336</v>
+        <v>21.30576827397264</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.587368763159294</v>
+        <v>10.1679220061922</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.4609705417766</v>
+        <v>13.76510014551773</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.06322921911811</v>
+        <v>18.57184555010214</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.400616518984093</v>
+        <v>7.91604045383972</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.074377314017048</v>
+        <v>7.318036461133981</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>17.56272822191632</v>
+        <v>17.68572656086505</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.345585936626713</v>
+        <v>6.81164814422513</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.153182091232111</v>
+        <v>8.259848649543343</v>
       </c>
     </row>
     <row r="37">
@@ -1788,7 +1792,7 @@
         <v>0.007610444801576201</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02473057906876738</v>
+        <v>0.02473057906876714</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.285440691491314</v>
@@ -1797,7 +1801,7 @@
         <v>0.02649489300523325</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.0884536909531102</v>
+        <v>0.08845369095311006</v>
       </c>
     </row>
     <row r="38">
@@ -1808,31 +1812,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1160031270485226</v>
+        <v>0.1116163001577534</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1357316572895299</v>
+        <v>-0.1145283127412324</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.00898275563895003</v>
+        <v>0.007722286778750576</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0850212258526659</v>
+        <v>0.07339179090854243</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1368263563818384</v>
+        <v>-0.1371073255453092</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.09996652587854923</v>
+        <v>-0.09664746027314884</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.143145404094492</v>
+        <v>0.1442119231165292</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.09496682796623238</v>
+        <v>-0.100175035091336</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.01592803835474917</v>
+        <v>-0.015850614959891</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1847,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5933171181937166</v>
+        <v>0.6151336401366649</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2753870890793078</v>
+        <v>0.2992112857961461</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4180019597336252</v>
+        <v>0.4125801409217008</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.431326007602227</v>
+        <v>0.4390405981531458</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1771907602698408</v>
+        <v>0.1853432239968381</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.175196710984262</v>
+        <v>0.177996498385676</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4327432301655114</v>
+        <v>0.4488537062168559</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1622169702554692</v>
+        <v>0.1728893699029988</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2060377232369867</v>
+        <v>0.2087708946107844</v>
       </c>
     </row>
     <row r="40">
@@ -1917,31 +1921,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.675847976821257</v>
+        <v>4.053088256506303</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.855654759452948</v>
+        <v>-2.430378137504257</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.048895460498557</v>
+        <v>-1.001338442699428</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.574144197061513</v>
+        <v>1.233503915696047</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.598629674181026</v>
+        <v>-7.570042727979195</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.393673915034591</v>
+        <v>0.1128109453931477</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.527590313905907</v>
+        <v>4.199308764284856</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.639317726807418</v>
+        <v>-3.419682029232915</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.968966211057027</v>
+        <v>2.230374788272921</v>
       </c>
     </row>
     <row r="42">
@@ -1952,31 +1956,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.07654999044751</v>
+        <v>22.92597003576464</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.80556109567452</v>
+        <v>16.19839596945341</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.99706990534967</v>
+        <v>15.25206043990678</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.87827779320695</v>
+        <v>16.15346508106219</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.339814699324661</v>
+        <v>8.979930578379145</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.34568930718869</v>
+        <v>14.04190303434255</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.01953277973837</v>
+        <v>16.17641825453398</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.32092701442301</v>
+        <v>8.810263550511028</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.60194400785646</v>
+        <v>12.85368733019673</v>
       </c>
     </row>
     <row r="43">
@@ -2022,31 +2026,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03761802853765021</v>
+        <v>0.07838767871828638</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04860964409421166</v>
+        <v>-0.04611070871719662</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02138440730046605</v>
+        <v>-0.01962766220163805</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.02566346343524857</v>
+        <v>0.02108983106522786</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1292559784071421</v>
+        <v>-0.124207863779138</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02279345293139643</v>
+        <v>0.002564286956384072</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08064450168567749</v>
+        <v>0.07458587171584652</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04883375573260863</v>
+        <v>-0.06033550152381029</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.03499789642641765</v>
+        <v>0.03942794119435022</v>
       </c>
     </row>
     <row r="45">
@@ -2057,31 +2061,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5276651372254499</v>
+        <v>0.5372841416692153</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3560089945307829</v>
+        <v>0.393827425710095</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3583622069554587</v>
+        <v>0.3658851229788672</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3043131674278378</v>
+        <v>0.3150480794893884</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1625020254551652</v>
+        <v>0.1720774346425107</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2801635658347738</v>
+        <v>0.2759300823765364</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3284093772123772</v>
+        <v>0.3275628565019673</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1878688511722348</v>
+        <v>0.1757534086309809</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2560832994299912</v>
+        <v>0.2630191865335971</v>
       </c>
     </row>
     <row r="46">
@@ -2102,7 +2106,7 @@
         <v>2.109172418886396</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6.106990185682795</v>
+        <v>6.106990185682792</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.017065068442466</v>
@@ -2111,7 +2115,7 @@
         <v>0.8062077466621825</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.994630808927385</v>
+        <v>3.994630808927382</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.909564523786749</v>
@@ -2120,7 +2124,7 @@
         <v>1.455758152172099</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>5.045724334104659</v>
+        <v>5.045724334104662</v>
       </c>
     </row>
     <row r="47">
@@ -2131,31 +2135,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.917843992073079</v>
+        <v>2.016492436322108</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.5160517245646238</v>
+        <v>0.5442336286613891</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.221363321373918</v>
+        <v>4.191868117202637</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.081787855133681</v>
+        <v>2.1678759642371</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.135066501181746</v>
+        <v>-1.10161689703012</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.369380903573775</v>
+        <v>2.472250890042214</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.649545814948759</v>
+        <v>2.560351068650223</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.180033380061849</v>
+        <v>0.2177873574330614</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.75964833548788</v>
+        <v>3.830893978854848</v>
       </c>
     </row>
     <row r="48">
@@ -2166,31 +2170,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.397228475478099</v>
+        <v>5.641631108770806</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.860698686546864</v>
+        <v>3.789057833651126</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.790738655114207</v>
+        <v>7.762978347091555</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.90307968289854</v>
+        <v>5.904923061597893</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.750475400756361</v>
+        <v>2.614450140260955</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.816515110046691</v>
+        <v>5.761638640367934</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.263147487804256</v>
+        <v>5.261817443445263</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.734541260902571</v>
+        <v>2.732351596216515</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.244818235300804</v>
+        <v>6.324723085015593</v>
       </c>
     </row>
     <row r="49">
@@ -2207,7 +2211,7 @@
         <v>0.1617618545331121</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.468372357425926</v>
+        <v>0.4683723574259258</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.236984352257858</v>
@@ -2216,7 +2220,7 @@
         <v>0.04756174405262588</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2356608565292644</v>
+        <v>0.2356608565292643</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2602052826489356</v>
@@ -2225,7 +2229,7 @@
         <v>0.09688955359343619</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3358236239704353</v>
+        <v>0.3358236239704355</v>
       </c>
     </row>
     <row r="50">
@@ -2236,31 +2240,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1379797521470081</v>
+        <v>0.1431476275807894</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.0351368086344231</v>
+        <v>0.03713904494802373</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3001451864692168</v>
+        <v>0.303325263589886</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1181442816013213</v>
+        <v>0.1191766965270199</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.06558655597495749</v>
+        <v>-0.06460139165992416</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1333595131977372</v>
+        <v>0.1397689236229112</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1681843786684233</v>
+        <v>0.1623405996573943</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.01127840397984589</v>
+        <v>0.01418840057339603</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2398280450808448</v>
+        <v>0.2444756770003871</v>
       </c>
     </row>
     <row r="51">
@@ -2271,31 +2275,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4402979759546058</v>
+        <v>0.4694980573324662</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3127048759308074</v>
+        <v>0.3094213002252881</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6410004844983983</v>
+        <v>0.633255486569394</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3698674298215925</v>
+        <v>0.3669530795022897</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1687939658911373</v>
+        <v>0.1649543454891493</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3704812119638797</v>
+        <v>0.3586779096513421</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3709232468500352</v>
+        <v>0.3630978316780908</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1903541015454612</v>
+        <v>0.1882988059506349</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4353560603773602</v>
+        <v>0.4386869422613088</v>
       </c>
     </row>
     <row r="52">
